--- a/data/zh-cn/talents.xlsx
+++ b/data/zh-cn/talents.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\lifeRestart\data\zh-cn\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\lifeRestartLatest\data\zh-cn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC50EA40-EDCD-4BFE-97A3-E33DDA67F727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CF3684-F445-497B-8A24-9839AAF8A561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="talents" sheetId="1" r:id="rId1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="138">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -214,9 +214,6 @@
     <t>提升根骨。</t>
   </si>
   <si>
-    <t>大幅提升仙姿。</t>
-  </si>
-  <si>
     <t>额外根骨</t>
   </si>
   <si>
@@ -247,9 +244,6 @@
     <t>提升根骨，略降悟性。</t>
   </si>
   <si>
-    <t>提升根骨，略降仙姿。</t>
-  </si>
-  <si>
     <t>下品土灵根</t>
   </si>
   <si>
@@ -295,21 +289,9 @@
     <t>略微提升根骨，略降悟性。</t>
   </si>
   <si>
-    <t>略微提升根骨，略降仙姿。</t>
-  </si>
-  <si>
     <t>略微提升仙姿。</t>
   </si>
   <si>
-    <t>普通符修天赋</t>
-  </si>
-  <si>
-    <t>罕见符修天赋</t>
-  </si>
-  <si>
-    <t>极品符修天赋</t>
-  </si>
-  <si>
     <t>普通阵修天赋</t>
   </si>
   <si>
@@ -334,15 +316,6 @@
     <t>略降悟性，大幅提升灵石。</t>
   </si>
   <si>
-    <t>略降仙姿，略微提升灵石。</t>
-  </si>
-  <si>
-    <t>略降仙姿，提升灵石。</t>
-  </si>
-  <si>
-    <t>略降仙姿，大幅提升灵石。</t>
-  </si>
-  <si>
     <t>普通御兽天赋</t>
   </si>
   <si>
@@ -355,24 +328,6 @@
     <t>极品御兽天赋</t>
   </si>
   <si>
-    <t>普通魔修天赋</t>
-  </si>
-  <si>
-    <t>略降随机属性，略微提升初始属性。</t>
-  </si>
-  <si>
-    <t>罕见魔修天赋</t>
-  </si>
-  <si>
-    <t>极品魔修天赋</t>
-  </si>
-  <si>
-    <t>略降随机属性，提升初始属性。</t>
-  </si>
-  <si>
-    <t>略降随机属性，大幅提升初始属性。</t>
-  </si>
-  <si>
     <t>普通体修天赋</t>
   </si>
   <si>
@@ -385,18 +340,6 @@
     <t>大幅提升根骨，略降悟性。</t>
   </si>
   <si>
-    <t>普通妖修天赋</t>
-  </si>
-  <si>
-    <t>罕见妖修天赋</t>
-  </si>
-  <si>
-    <t>极品妖修天赋</t>
-  </si>
-  <si>
-    <t>大幅提升根骨，略降仙姿。</t>
-  </si>
-  <si>
     <t>随机灵根</t>
   </si>
   <si>
@@ -523,9 +466,6 @@
     <t>家传宝</t>
   </si>
   <si>
-    <t>名师高徒</t>
-  </si>
-  <si>
     <t>天妒英才</t>
   </si>
   <si>
@@ -565,9 +505,6 @@
     <t>你不受门派束缚。</t>
   </si>
   <si>
-    <t>你会拜入门派。</t>
-  </si>
-  <si>
     <t>姿容出尘</t>
   </si>
   <si>
@@ -593,15 +530,6 @@
   </si>
   <si>
     <t>淡妆浓抹</t>
-  </si>
-  <si>
-    <t>普通炉鼎体质</t>
-  </si>
-  <si>
-    <t>罕见炉鼎体质</t>
-  </si>
-  <si>
-    <t>极品炉鼎体质</t>
   </si>
 </sst>
 </file>
@@ -985,13 +913,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX68"/>
+  <dimension ref="A1:AX55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D58" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C68" sqref="C68"/>
+      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.4609375" defaultRowHeight="39.65" customHeight="1"/>
@@ -1186,19 +1114,19 @@
         <v>4</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>18</v>
@@ -1320,10 +1248,10 @@
         <v>1001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -1397,10 +1325,10 @@
         <v>1002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -1426,10 +1354,10 @@
         <v>1003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -1455,10 +1383,10 @@
         <v>1004</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -1484,10 +1412,10 @@
         <v>1005</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -1513,10 +1441,10 @@
         <v>1006</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -1542,10 +1470,10 @@
         <v>1007</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -1571,10 +1499,10 @@
         <v>1008</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -1600,10 +1528,10 @@
         <v>1009</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -1629,10 +1557,10 @@
         <v>1010</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -1658,10 +1586,10 @@
         <v>1011</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -1687,10 +1615,10 @@
         <v>1012</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="E14" s="1">
         <v>2</v>
@@ -1716,10 +1644,10 @@
         <v>1013</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="E15" s="1">
         <v>2</v>
@@ -1745,10 +1673,10 @@
         <v>1014</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="E16" s="1">
         <v>2</v>
@@ -1774,10 +1702,10 @@
         <v>1015</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="E17" s="1">
         <v>2</v>
@@ -1803,10 +1731,10 @@
         <v>1016</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="E18" s="1">
         <v>2</v>
@@ -1832,10 +1760,10 @@
         <v>1017</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="E19" s="1">
         <v>3</v>
@@ -1861,10 +1789,10 @@
         <v>1018</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="E20" s="1">
         <v>3</v>
@@ -1890,10 +1818,10 @@
         <v>1019</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="E21" s="1">
         <v>3</v>
@@ -1919,10 +1847,10 @@
         <v>1020</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="E22" s="1">
         <v>3</v>
@@ -1948,10 +1876,10 @@
         <v>1021</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="E23" s="1">
         <v>3</v>
@@ -1977,10 +1905,10 @@
         <v>1022</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
@@ -2036,7 +1964,7 @@
         <v>1023</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>28</v>
@@ -2053,10 +1981,10 @@
         <v>1024</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="E26" s="1">
         <v>2</v>
@@ -2067,10 +1995,10 @@
         <v>1025</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="E27" s="1">
         <v>3</v>
@@ -2084,10 +2012,10 @@
         <v>1026</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="E28" s="1">
         <v>3</v>
@@ -2113,10 +2041,10 @@
         <v>1027</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
@@ -2124,234 +2052,237 @@
     </row>
     <row r="30" spans="1:34" ht="39.65" customHeight="1">
       <c r="A30" s="1">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="E30" s="1">
         <v>0</v>
       </c>
-      <c r="AE30" s="1">
-        <v>1033</v>
+      <c r="K30" s="1">
+        <v>-2</v>
+      </c>
+      <c r="L30" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:34" ht="39.65" customHeight="1">
       <c r="A31" s="1">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="E31" s="1">
         <v>0</v>
       </c>
-      <c r="K31" s="1">
-        <v>-2</v>
-      </c>
-      <c r="L31" s="1">
-        <v>2</v>
+      <c r="AE31" s="1">
+        <v>1032</v>
       </c>
     </row>
     <row r="32" spans="1:34" ht="39.65" customHeight="1">
       <c r="A32" s="1">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>146</v>
+        <v>57</v>
       </c>
       <c r="E32" s="1">
         <v>0</v>
       </c>
-      <c r="AE32" s="1">
-        <v>1032</v>
+      <c r="J32" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:33" ht="39.65" customHeight="1">
       <c r="A33" s="1">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="E33" s="1">
-        <v>0</v>
-      </c>
-      <c r="J33" s="1">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="AE33" s="1">
+        <v>1030</v>
       </c>
     </row>
     <row r="34" spans="1:33" ht="39.65" customHeight="1">
       <c r="A34" s="1">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="E34" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE34" s="1">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="35" spans="1:33" ht="39.65" customHeight="1">
       <c r="A35" s="1">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>148</v>
+        <v>27</v>
       </c>
       <c r="E35" s="1">
         <v>0</v>
       </c>
-      <c r="AE35" s="1">
-        <v>1028</v>
+      <c r="J35" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:33" ht="39.65" customHeight="1">
       <c r="A36" s="1">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E36" s="1">
         <v>0</v>
       </c>
-      <c r="J36" s="1">
+      <c r="L36" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:33" ht="39.65" customHeight="1">
       <c r="A37" s="1">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E37" s="1">
         <v>0</v>
       </c>
-      <c r="L37" s="1">
+      <c r="K37" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:33" ht="39.65" customHeight="1">
       <c r="A38" s="1">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E38" s="1">
         <v>0</v>
       </c>
-      <c r="K38" s="1">
+      <c r="H38" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:33" ht="39.65" customHeight="1">
       <c r="A39" s="1">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>29</v>
+        <v>133</v>
       </c>
       <c r="E39" s="1">
         <v>0</v>
       </c>
-      <c r="H39" s="1">
-        <v>2</v>
+      <c r="M39" s="1">
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:33" ht="39.65" customHeight="1">
       <c r="A40" s="1">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E40" s="1">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="M40" s="1">
-        <v>-1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AE40" s="1"/>
+      <c r="AF40" s="1"/>
+      <c r="AG40" s="1"/>
     </row>
     <row r="41" spans="1:33" ht="39.65" customHeight="1">
       <c r="A41" s="1">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>157</v>
+        <v>43</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="M41" s="1">
-        <v>1</v>
-      </c>
-      <c r="AE41" s="1"/>
-      <c r="AF41" s="1"/>
-      <c r="AG41" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1</v>
+      </c>
+      <c r="H41" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I41" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" spans="1:33" ht="39.65" customHeight="1">
       <c r="A42" s="1">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E42" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H42" s="1">
         <v>-1</v>
       </c>
       <c r="I42" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:33" ht="39.65" customHeight="1">
       <c r="A43" s="1">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>47</v>
@@ -2360,512 +2291,261 @@
         <v>46</v>
       </c>
       <c r="E43" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H43" s="1">
         <v>-1</v>
       </c>
       <c r="I43" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:33" ht="39.65" customHeight="1">
       <c r="A44" s="1">
-        <v>1042</v>
+        <v>1046</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E44" s="1">
-        <v>3</v>
-      </c>
-      <c r="H44" s="1">
+        <v>1</v>
+      </c>
+      <c r="I44" s="1">
+        <v>1</v>
+      </c>
+      <c r="K44" s="1">
         <v>-1</v>
-      </c>
-      <c r="I44" s="1">
-        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:33" ht="39.65" customHeight="1">
       <c r="A45" s="1">
-        <v>1043</v>
+        <v>1047</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="E45" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45" s="1">
-        <v>1</v>
-      </c>
-      <c r="J45" s="1">
+        <v>2</v>
+      </c>
+      <c r="K45" s="1">
         <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:33" ht="39.65" customHeight="1">
       <c r="A46" s="1">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E46" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I46" s="1">
-        <v>2</v>
-      </c>
-      <c r="J46" s="1">
+        <v>3</v>
+      </c>
+      <c r="K46" s="1">
         <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:33" ht="39.65" customHeight="1">
       <c r="A47" s="1">
-        <v>1045</v>
+        <v>1049</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E47" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I47" s="1">
-        <v>3</v>
-      </c>
-      <c r="J47" s="1">
+        <v>1</v>
+      </c>
+      <c r="L47" s="1">
         <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:33" ht="39.65" customHeight="1">
       <c r="A48" s="1">
-        <v>1046</v>
+        <v>1050</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="E48" s="1">
+        <v>2</v>
+      </c>
+      <c r="I48" s="1">
+        <v>2</v>
+      </c>
+      <c r="L48" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="39.65" customHeight="1">
+      <c r="A49" s="1">
+        <v>1051</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E48" s="1">
-        <v>1</v>
-      </c>
-      <c r="I48" s="1">
-        <v>1</v>
-      </c>
-      <c r="K48" s="1">
+      <c r="E49" s="1">
+        <v>3</v>
+      </c>
+      <c r="I49" s="1">
+        <v>3</v>
+      </c>
+      <c r="L49" s="1">
         <v>-1</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="39.65" customHeight="1">
-      <c r="A49" s="1">
-        <v>1047</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E49" s="1">
-        <v>2</v>
-      </c>
-      <c r="I49" s="1">
-        <v>2</v>
-      </c>
-      <c r="K49" s="1">
+    <row r="50" spans="1:12" ht="39.65" customHeight="1">
+      <c r="A50" s="1">
+        <v>1055</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E50" s="1">
+        <v>1</v>
+      </c>
+      <c r="K50" s="1">
+        <v>1</v>
+      </c>
+      <c r="L50" s="1">
         <v>-1</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="39.65" customHeight="1">
-      <c r="A50" s="1">
-        <v>1048</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E50" s="1">
-        <v>3</v>
-      </c>
-      <c r="I50" s="1">
-        <v>3</v>
-      </c>
-      <c r="K50" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" ht="39.65" customHeight="1">
+    <row r="51" spans="1:12" ht="39.65" customHeight="1">
       <c r="A51" s="1">
-        <v>1049</v>
+        <v>1056</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="E51" s="1">
-        <v>1</v>
-      </c>
-      <c r="I51" s="1">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="K51" s="1">
+        <v>2</v>
       </c>
       <c r="L51" s="1">
         <v>-1</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="39.65" customHeight="1">
+    <row r="52" spans="1:12" ht="39.65" customHeight="1">
       <c r="A52" s="1">
-        <v>1050</v>
+        <v>1057</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E52" s="1">
-        <v>2</v>
-      </c>
-      <c r="I52" s="1">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="K52" s="1">
+        <v>3</v>
       </c>
       <c r="L52" s="1">
         <v>-1</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="39.65" customHeight="1">
+    <row r="53" spans="1:12" ht="39.65" customHeight="1">
       <c r="A53" s="1">
-        <v>1051</v>
+        <v>1061</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="E53" s="1">
+        <v>1</v>
+      </c>
+      <c r="I53" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K53" s="1">
+        <v>1</v>
+      </c>
+      <c r="L53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="39.65" customHeight="1">
+      <c r="A54" s="1">
+        <v>1062</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E54" s="1">
+        <v>2</v>
+      </c>
+      <c r="I54" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K54" s="1">
+        <v>2</v>
+      </c>
+      <c r="L54" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="39.65" customHeight="1">
+      <c r="A55" s="1">
+        <v>1063</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E55" s="1">
         <v>3</v>
       </c>
-      <c r="I53" s="1">
+      <c r="I55" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K55" s="1">
         <v>3</v>
       </c>
-      <c r="L53" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" ht="39.65" customHeight="1">
-      <c r="A54" s="1">
-        <v>1052</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E54" s="1">
-        <v>1</v>
-      </c>
-      <c r="G54" s="1">
-        <v>1</v>
-      </c>
-      <c r="M54" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" ht="39.65" customHeight="1">
-      <c r="A55" s="1">
-        <v>1053</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E55" s="1">
-        <v>2</v>
-      </c>
-      <c r="G55" s="1">
-        <v>2</v>
-      </c>
-      <c r="M55" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" ht="39.65" customHeight="1">
-      <c r="A56" s="1">
-        <v>1054</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E56" s="1">
-        <v>3</v>
-      </c>
-      <c r="G56" s="1">
-        <v>3</v>
-      </c>
-      <c r="M56" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" ht="39.65" customHeight="1">
-      <c r="A57" s="1">
-        <v>1055</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E57" s="1">
-        <v>1</v>
-      </c>
-      <c r="K57" s="1">
-        <v>1</v>
-      </c>
-      <c r="L57" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" ht="39.65" customHeight="1">
-      <c r="A58" s="1">
-        <v>1056</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E58" s="1">
-        <v>2</v>
-      </c>
-      <c r="K58" s="1">
-        <v>2</v>
-      </c>
-      <c r="L58" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" ht="39.65" customHeight="1">
-      <c r="A59" s="1">
-        <v>1057</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E59" s="1">
-        <v>3</v>
-      </c>
-      <c r="K59" s="1">
-        <v>3</v>
-      </c>
-      <c r="L59" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" ht="39.65" customHeight="1">
-      <c r="A60" s="1">
-        <v>1058</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E60" s="1">
-        <v>1</v>
-      </c>
-      <c r="J60" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K60" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" ht="39.65" customHeight="1">
-      <c r="A61" s="1">
-        <v>1059</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E61" s="1">
-        <v>2</v>
-      </c>
-      <c r="J61" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K61" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" ht="39.65" customHeight="1">
-      <c r="A62" s="1">
-        <v>1060</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E62" s="1">
-        <v>3</v>
-      </c>
-      <c r="J62" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K62" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" ht="39.65" customHeight="1">
-      <c r="A63" s="1">
-        <v>1061</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E63" s="1">
-        <v>1</v>
-      </c>
-      <c r="I63" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K63" s="1">
-        <v>1</v>
-      </c>
-      <c r="L63" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" ht="39.65" customHeight="1">
-      <c r="A64" s="1">
-        <v>1062</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E64" s="1">
-        <v>2</v>
-      </c>
-      <c r="I64" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K64" s="1">
-        <v>2</v>
-      </c>
-      <c r="L64" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" ht="39.65" customHeight="1">
-      <c r="A65" s="1">
-        <v>1063</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E65" s="1">
-        <v>3</v>
-      </c>
-      <c r="I65" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K65" s="1">
-        <v>3</v>
-      </c>
-      <c r="L65" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" ht="39.65" customHeight="1">
-      <c r="A66" s="1">
-        <v>1064</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E66" s="1">
-        <v>1</v>
-      </c>
-      <c r="J66" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" ht="39.65" customHeight="1">
-      <c r="A67" s="1">
-        <v>1065</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E67" s="1">
-        <v>2</v>
-      </c>
-      <c r="J67" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" ht="39.65" customHeight="1">
-      <c r="A68" s="1">
-        <v>1066</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E68" s="1">
-        <v>3</v>
-      </c>
-      <c r="J68" s="1">
+      <c r="L55" s="1">
         <v>3</v>
       </c>
     </row>
